--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_122.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_122.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Jefferson Inn &amp; Suites</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Jefferson</t>
   </si>
   <si>
@@ -58,78 +136,6 @@
   </si>
   <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -500,32 +506,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>51434</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70121</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -550,76 +577,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="X1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E2" t="n">
+        <v>70121</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_122.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_122.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1195 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r623892827-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40235</t>
+  </si>
+  <si>
+    <t>1638071</t>
+  </si>
+  <si>
+    <t>623892827</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>Jefferson Inn and Suites Very Clean , Carrying 
+and Griendly staff great location</t>
+  </si>
+  <si>
+    <t>My name is David from Sulphur La and I highly recommend this Hotel to anyone staying in this area .We had an extra long stay due to a loved one having a lengthy stay in Oschsner. After asking the staff if they could reduce the price they gladly accommodated us . The rooms have true King size beds and have recently been remodeled. They have a table , small ice box and other amenities.We had seperate rooms with a TV in each room . They have a big Ice machine with an actual scoop . The continental breakfast was very good also . We have had a total of 5 family members staying in the room at different times and all say the same . No one asked me to put this review in and I’ve never done one before. I found this place by google . We all agree that we have been treated as good as it gets . I’m putting this review in because The Owner  Manager and other employees deserve this and if you want to stay in a great little motel for the money then this is the place for you and your family . They have many restaurants , Walmart , drug stores etc very close . The Staff that has treated us So
+Good is Blanca, Shelby and Milan once again No one asked me or paid me to put this review and...My name is David from Sulphur La and I highly recommend this Hotel to anyone staying in this area .We had an extra long stay due to a loved one having a lengthy stay in Oschsner. After asking the staff if they could reduce the price they gladly accommodated us . The rooms have true King size beds and have recently been remodeled. They have a table , small ice box and other amenities.We had seperate rooms with a TV in each room . They have a big Ice machine with an actual scoop . The continental breakfast was very good also . We have had a total of 5 family members staying in the room at different times and all say the same . No one asked me to put this review in and I’ve never done one before. I found this place by google . We all agree that we have been treated as good as it gets . I’m putting this review in because The Owner  Manager and other employees deserve this and if you want to stay in a great little motel for the money then this is the place for you and your family . They have many restaurants , Walmart , drug stores etc very close . The Staff that has treated us SoGood is Blanca, Shelby and Milan once again No one asked me or paid me to put this review and once again I highly recommended this place and thank them for being carrying , compassionate , friendly, clean and working with us on the price .The name of this place is Jefferson Inn &amp; Suites on Jefferson St in Jefferson Louisiana just west of Metarie, 3401 Jefferson Hwy Jefferson La 5048389442Jeffersoninnandsuites.comMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My name is David from Sulphur La and I highly recommend this Hotel to anyone staying in this area .We had an extra long stay due to a loved one having a lengthy stay in Oschsner. After asking the staff if they could reduce the price they gladly accommodated us . The rooms have true King size beds and have recently been remodeled. They have a table , small ice box and other amenities.We had seperate rooms with a TV in each room . They have a big Ice machine with an actual scoop . The continental breakfast was very good also . We have had a total of 5 family members staying in the room at different times and all say the same . No one asked me to put this review in and I’ve never done one before. I found this place by google . We all agree that we have been treated as good as it gets . I’m putting this review in because The Owner  Manager and other employees deserve this and if you want to stay in a great little motel for the money then this is the place for you and your family . They have many restaurants , Walmart , drug stores etc very close . The Staff that has treated us So
+Good is Blanca, Shelby and Milan once again No one asked me or paid me to put this review and...My name is David from Sulphur La and I highly recommend this Hotel to anyone staying in this area .We had an extra long stay due to a loved one having a lengthy stay in Oschsner. After asking the staff if they could reduce the price they gladly accommodated us . The rooms have true King size beds and have recently been remodeled. They have a table , small ice box and other amenities.We had seperate rooms with a TV in each room . They have a big Ice machine with an actual scoop . The continental breakfast was very good also . We have had a total of 5 family members staying in the room at different times and all say the same . No one asked me to put this review in and I’ve never done one before. I found this place by google . We all agree that we have been treated as good as it gets . I’m putting this review in because The Owner  Manager and other employees deserve this and if you want to stay in a great little motel for the money then this is the place for you and your family . They have many restaurants , Walmart , drug stores etc very close . The Staff that has treated us SoGood is Blanca, Shelby and Milan once again No one asked me or paid me to put this review and once again I highly recommended this place and thank them for being carrying , compassionate , friendly, clean and working with us on the price .The name of this place is Jefferson Inn &amp; Suites on Jefferson St in Jefferson Louisiana just west of Metarie, 3401 Jefferson Hwy Jefferson La 5048389442Jeffersoninnandsuites.comMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r593638588-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>593638588</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>2 King Sized Beds with 2 separate TVs</t>
+  </si>
+  <si>
+    <t>For the price that we paid which also includes breakfast for a family of 4, I consider this to be great value for a super comfortable, uncomplicated motel stay. Room is very spacious with 2 comfortable clean King size beds (which is very rare), and a dividing wall for privacy and 2 TVs.  Breakfast provides coffee, waffles, banana, packet grits, yogurt that helped get my family on the road quickly. Uber ride to town about $18. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded July 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2018</t>
+  </si>
+  <si>
+    <t>For the price that we paid which also includes breakfast for a family of 4, I consider this to be great value for a super comfortable, uncomplicated motel stay. Room is very spacious with 2 comfortable clean King size beds (which is very rare), and a dividing wall for privacy and 2 TVs.  Breakfast provides coffee, waffles, banana, packet grits, yogurt that helped get my family on the road quickly. Uber ride to town about $18. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r575045968-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575045968</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden gem </t>
+  </si>
+  <si>
+    <t>This hotel looks shady from the outside but it’s a nice surprise inside. The staff are there when needed and assist if there’s issues. A great place to stay while in New Orleans it’s a short distance to the heart of New Orleans without all of the hassle and pedestrian traffic MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>This hotel looks shady from the outside but it’s a nice surprise inside. The staff are there when needed and assist if there’s issues. A great place to stay while in New Orleans it’s a short distance to the heart of New Orleans without all of the hassle and pedestrian traffic More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r569928045-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>569928045</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Fabulous!</t>
+  </si>
+  <si>
+    <t>If you need a swimming pool, gym, or hotel restaurant, this is not the place for you.  But if you want a safe, ultra-clean, extremely hospitable, reasonable, and convenient (not in City Center, but very close) stay while in New Orleans, Jefferson Inn and Suites is perfect!  This was our fourth visit to this property, and we enjoyed it immensely.  This is, and shall be, our go-to lodgings when we're in The Big Easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>If you need a swimming pool, gym, or hotel restaurant, this is not the place for you.  But if you want a safe, ultra-clean, extremely hospitable, reasonable, and convenient (not in City Center, but very close) stay while in New Orleans, Jefferson Inn and Suites is perfect!  This was our fourth visit to this property, and we enjoyed it immensely.  This is, and shall be, our go-to lodgings when we're in The Big Easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r567907535-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>567907535</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Good place if all you're looking for is bed and shower.</t>
+  </si>
+  <si>
+    <t>As other reviewers noted, this place looks spooky upon arriving. The rooms were clean, but had a strong carpet cleaner smell. The rooms are small, not really a desk available for computer work, with furniture looking as it was purchased from surplus store. Room was repainted, but the bath looked as it did from the 1970's, except for the ceramic tile floor. Breakfast is waffle maker, cereal, few fruits and Little Debbie snacks. Not really convenient to any touristy stuff,  but money saved on rates will pay for taxi to wherever you need to go.Eating locations are removed for this property also, requiring a drive. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>As other reviewers noted, this place looks spooky upon arriving. The rooms were clean, but had a strong carpet cleaner smell. The rooms are small, not really a desk available for computer work, with furniture looking as it was purchased from surplus store. Room was repainted, but the bath looked as it did from the 1970's, except for the ceramic tile floor. Breakfast is waffle maker, cereal, few fruits and Little Debbie snacks. Not really convenient to any touristy stuff,  but money saved on rates will pay for taxi to wherever you need to go.Eating locations are removed for this property also, requiring a drive. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r563062099-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>563062099</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Location,Location, Location</t>
+  </si>
+  <si>
+    <t>The rooms were clean and spacious, with a large bed, decent size bathroom, and a full size refrigerator. The room was a non smoking but smelt like cigarette smoke. The Inn itself is not too far away from downtown, however, the location is not enviable. A number of locals mentioned the area is considered a bad area. It was evident the moment we pulled up and confirmed when the restaurant up the block refused to deliver due to the location. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded March 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2018</t>
+  </si>
+  <si>
+    <t>The rooms were clean and spacious, with a large bed, decent size bathroom, and a full size refrigerator. The room was a non smoking but smelt like cigarette smoke. The Inn itself is not too far away from downtown, however, the location is not enviable. A number of locals mentioned the area is considered a bad area. It was evident the moment we pulled up and confirmed when the restaurant up the block refused to deliver due to the location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r560935721-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>560935721</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice new rooms </t>
+  </si>
+  <si>
+    <t>We’ve been here on our us round trip to visit NO. Our room was really new with a nice bathroom, a modern Keurig Coffee maker and modern interior. Definitely the most modern motel for a low price, I have ever been. It’s between MSY airport and NO downtown, so on the one hand you have to drive about 20min / the Uber will be about 15$. On the other hand, if the wind blows from the false site, the hotel is located next to the flight path and so it might become a lil bit noisy. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>We’ve been here on our us round trip to visit NO. Our room was really new with a nice bathroom, a modern Keurig Coffee maker and modern interior. Definitely the most modern motel for a low price, I have ever been. It’s between MSY airport and NO downtown, so on the one hand you have to drive about 20min / the Uber will be about 15$. On the other hand, if the wind blows from the false site, the hotel is located next to the flight path and so it might become a lil bit noisy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r534931975-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>534931975</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Good value for your money</t>
+  </si>
+  <si>
+    <t>For the last three nights we stayed in the jefferson inn and suites. It is a motel in the jefferson area. The motel itself is small but convenient, city centre is reachable in 15 minutes by car. Around the motel is a cheap gas station and the walmart is 3 minutes away. The room itself is clean and the bed is comfy. Everyday you get free water wat is really nice. The Breakfast is very little but you can have toast, cereal, oatmeal or a waffle. For the money we paid we thought it is a nice place. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>For the last three nights we stayed in the jefferson inn and suites. It is a motel in the jefferson area. The motel itself is small but convenient, city centre is reachable in 15 minutes by car. Around the motel is a cheap gas station and the walmart is 3 minutes away. The room itself is clean and the bed is comfy. Everyday you get free water wat is really nice. The Breakfast is very little but you can have toast, cereal, oatmeal or a waffle. For the money we paid we thought it is a nice place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r533538136-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>533538136</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>New Orleans trip</t>
+  </si>
+  <si>
+    <t>Came into town to see Saints game. Outside of building does not represent rooms! Very clean! Housekeeping came everyday &amp; made beds &amp; provided towels.  Great place!  Friendly! Will come back! They offer cont. breakfast!  I was very pleased with this place.  About 15 min to French Quarter!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Came into town to see Saints game. Outside of building does not represent rooms! Very clean! Housekeeping came everyday &amp; made beds &amp; provided towels.  Great place!  Friendly! Will come back! They offer cont. breakfast!  I was very pleased with this place.  About 15 min to French Quarter!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r506179451-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>506179451</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Fine with us</t>
+  </si>
+  <si>
+    <t>We stayed here two nights while in New Orleans. It is a very small hotel and isn't a beauty in the outside. However the room we had was nice. We had a problem at check in with our room and we were immediately moved to another room. Would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here two nights while in New Orleans. It is a very small hotel and isn't a beauty in the outside. However the room we had was nice. We had a problem at check in with our room and we were immediately moved to another room. Would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r498164974-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>498164974</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>Overall this is a decent hotel! We were a little worried when we pulled up but once checking and and seeing the hotel we felt more are ease.Rooms are spacious and comfortable. Very up to date. Showers work great and the bed/blankets and nice.Right down the street from a grocery store, Walgreens, mc Donald's and gas stations so that was nice.Not as close to the French quarter as we thought. It's a drive to get there. Otherwise that great stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Overall this is a decent hotel! We were a little worried when we pulled up but once checking and and seeing the hotel we felt more are ease.Rooms are spacious and comfortable. Very up to date. Showers work great and the bed/blankets and nice.Right down the street from a grocery store, Walgreens, mc Donald's and gas stations so that was nice.Not as close to the French quarter as we thought. It's a drive to get there. Otherwise that great stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r493445128-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>493445128</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel not far from downtown</t>
+  </si>
+  <si>
+    <t>We made a roundtrip through the deep sout of the united states and we stayed 2 nights in this hotel. Good choice for a short stayover, decent hotel with good breakfast and nice rooms for an affordable price. Uber to downtown about $13-15MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>We made a roundtrip through the deep sout of the united states and we stayed 2 nights in this hotel. Good choice for a short stayover, decent hotel with good breakfast and nice rooms for an affordable price. Uber to downtown about $13-15More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r488560476-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>488560476</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Very clean and wonderful staff</t>
+  </si>
+  <si>
+    <t>This hotel room and bathroom were very very clean. The beds were comfortable. The staff was very friendly, courteous and helpful. We only stayed one night before leaving on a cruise and would definitely recommend this and would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>This hotel room and bathroom were very very clean. The beds were comfortable. The staff was very friendly, courteous and helpful. We only stayed one night before leaving on a cruise and would definitely recommend this and would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r483835078-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>483835078</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Clean and Friendly staff</t>
+  </si>
+  <si>
+    <t>I think the best thing about this place is the staff. They are so friendly and accommodating. We chose the Jefferson Suites as we were only staying one night in New Orleans and we wanted something close to the Airport, so this worked out well. The area where the hotel is located is not the best area  - however my sister and I waled two miles to the local supermarket and it was a really nice walk and we felt VERY safe... so it's just the aesthetics of the area.The room had everything one needed for a short stay - we had a room with two king size beds - it was a huge room. the room did smell a little musty though - probably could do with a good airing out. Would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>I think the best thing about this place is the staff. They are so friendly and accommodating. We chose the Jefferson Suites as we were only staying one night in New Orleans and we wanted something close to the Airport, so this worked out well. The area where the hotel is located is not the best area  - however my sister and I waled two miles to the local supermarket and it was a really nice walk and we felt VERY safe... so it's just the aesthetics of the area.The room had everything one needed for a short stay - we had a room with two king size beds - it was a huge room. the room did smell a little musty though - probably could do with a good airing out. Would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r479245419-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>479245419</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Surprisingly impressed</t>
+  </si>
+  <si>
+    <t>My daughter daughter had an even to go to in New Orleans and booked this hotel because it was only about five miles from downtown N.O. and was the best price.  Once we drove up, I expressed my dissatisfaction and was underwhelmed.  She said the picture on the internet looked nice.  To be honest, I expected it to be pretty sad.  I was pleasantly surprised.   The room was very nice and clean, bathroom was very clean.  Had a nice continental breakfast and the staff was very nice and accommodating and even gave us a free upgrade to two king beds.  The only downside was parking was a little tight.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>My daughter daughter had an even to go to in New Orleans and booked this hotel because it was only about five miles from downtown N.O. and was the best price.  Once we drove up, I expressed my dissatisfaction and was underwhelmed.  She said the picture on the internet looked nice.  To be honest, I expected it to be pretty sad.  I was pleasantly surprised.   The room was very nice and clean, bathroom was very clean.  Had a nice continental breakfast and the staff was very nice and accommodating and even gave us a free upgrade to two king beds.  The only downside was parking was a little tight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r476923492-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>476923492</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>I wouldn't stay here again</t>
+  </si>
+  <si>
+    <t>Front desk staff very nice, but that's it. The neighborhood questionable people living at the motel. Stained floors smell in front lobby. Price still $140 a night hard to find in the back cut of a one way street. I would pay a little more next time. Room bed and bathroom clean. Free wifi and very light continental breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Front Office Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Front desk staff very nice, but that's it. The neighborhood questionable people living at the motel. Stained floors smell in front lobby. Price still $140 a night hard to find in the back cut of a one way street. I would pay a little more next time. Room bed and bathroom clean. Free wifi and very light continental breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r466693701-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>466693701</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>New TVs/Super Clean</t>
+  </si>
+  <si>
+    <t>We had an enjoyable one-night stay in a king room, second floor. The place was obviously remodeled. Fresh stairs (with incline easy to climb), ample parking, freshly painted and remodeled rooms. Marbled bathrooms with bowl sinks. Free WiFi. Amazingly two large TVs, also new, with one in bedroom and one in sitting room. We never watch TV at home, so it was rather fun to see local programming especially. Nice-sized refrigerator, also microwave in room and comfy sofa. Clean non-smoking room, but found a lighter at edge of bed. Just a few snafus to consider: 1)Little warm and stuffy. Bedroom was adjacent to sitting area, and AC unit had to blow through sitting area to bedroom, so it was harder to cool. Temp outside was mid-60s. 2) Not many towels -- two bath size, one hand towel, two wash cloths -- so especially hard to clean up my coffee machine spill. Coffee pot was a puzzle to use effectively. Luckily, coffee available in reception lobby for morning.  Would consider staying here again. Easy drive to French Quarter with GPS directions. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>We had an enjoyable one-night stay in a king room, second floor. The place was obviously remodeled. Fresh stairs (with incline easy to climb), ample parking, freshly painted and remodeled rooms. Marbled bathrooms with bowl sinks. Free WiFi. Amazingly two large TVs, also new, with one in bedroom and one in sitting room. We never watch TV at home, so it was rather fun to see local programming especially. Nice-sized refrigerator, also microwave in room and comfy sofa. Clean non-smoking room, but found a lighter at edge of bed. Just a few snafus to consider: 1)Little warm and stuffy. Bedroom was adjacent to sitting area, and AC unit had to blow through sitting area to bedroom, so it was harder to cool. Temp outside was mid-60s. 2) Not many towels -- two bath size, one hand towel, two wash cloths -- so especially hard to clean up my coffee machine spill. Coffee pot was a puzzle to use effectively. Luckily, coffee available in reception lobby for morning.  Would consider staying here again. Easy drive to French Quarter with GPS directions. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r464888732-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>464888732</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>This is a great place! It is clean, well decorated and a super value. Free breakfast is important to us. This is a classy budget establishment that took us by surprise. We planned to only stay one night, but extended our stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>This is a great place! It is clean, well decorated and a super value. Free breakfast is important to us. This is a classy budget establishment that took us by surprise. We planned to only stay one night, but extended our stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r441454824-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>441454824</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>confirm other positive reviews</t>
+  </si>
+  <si>
+    <t>We enjoyed this place from the biginning; lady at reception was nice and professional; we could check in early; room was nice, clean and quiet. Easy to access on Us 90 and not so far from the center of New OrleansMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>We enjoyed this place from the biginning; lady at reception was nice and professional; we could check in early; room was nice, clean and quiet. Easy to access on Us 90 and not so far from the center of New OrleansMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r440664496-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>440664496</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Another EXCELLET experience</t>
+  </si>
+  <si>
+    <t>As frequent attendees of the grand theater programs the Jefferson Inn Is a perfect place to relax and wind down before/ after the events.  Located in the heart of Wausau only about  1 1/2 blocks from the theater, across the street from a great Chinese restaurant, one block from from  a great Mexican  restaurant (which cab be accsest  w/out ever going outside in foul weather) The Jefferson itself has a great Bar/Restaurant on the street level.  Rates are reasonable and it pays to go a few dollars more for a suite complete with fireplace comfortable living area and bedroom.  Staff are friendly and helpful.  Has ALWYS proved to be an overall good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>As frequent attendees of the grand theater programs the Jefferson Inn Is a perfect place to relax and wind down before/ after the events.  Located in the heart of Wausau only about  1 1/2 blocks from the theater, across the street from a great Chinese restaurant, one block from from  a great Mexican  restaurant (which cab be accsest  w/out ever going outside in foul weather) The Jefferson itself has a great Bar/Restaurant on the street level.  Rates are reasonable and it pays to go a few dollars more for a suite complete with fireplace comfortable living area and bedroom.  Staff are friendly and helpful.  Has ALWYS proved to be an overall good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r439487478-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>439487478</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>A gentle surprise</t>
+  </si>
+  <si>
+    <t>Well, honestly the place looks very shady from the outside. BUT. The rooms were a surprise. Very modern. Very clean. Very comfortable. Very quiet. The only thing we really heard was the church bell chiming. Great value. Not too far from the Quarter. In fact, Harrah's is only 7 miles from Jefferson Inn. Parking is free. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded November 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2016</t>
+  </si>
+  <si>
+    <t>Well, honestly the place looks very shady from the outside. BUT. The rooms were a surprise. Very modern. Very clean. Very comfortable. Very quiet. The only thing we really heard was the church bell chiming. Great value. Not too far from the Quarter. In fact, Harrah's is only 7 miles from Jefferson Inn. Parking is free. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r436704644-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>436704644</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Jefferson Inn - An Excellent &amp; Economical Place to Stay In New Orleans</t>
+  </si>
+  <si>
+    <t>Jefferson Inn is a family run establishment that provides wonderful service. We always feel welcome when we visit and have stayed there at least a dozen times. The rooms are clean and the accommodations are very nice. The inn is conveniently located 10 minutes from Uptown and is surrounded by great local, affordable restaurants serving traditional New Orleans cuisine.MoreShow less</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Jefferson Inn is a family run establishment that provides wonderful service. We always feel welcome when we visit and have stayed there at least a dozen times. The rooms are clean and the accommodations are very nice. The inn is conveniently located 10 minutes from Uptown and is surrounded by great local, affordable restaurants serving traditional New Orleans cuisine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r431656302-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>431656302</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Clean and inexpensive</t>
+  </si>
+  <si>
+    <t>Clean room with a decent bed and no noise from the parking lot. Great price and only 10 minutes from the French Quarter. The front desk was friendly and had lots of info on local attractions. I will use them again. MoreShow less</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Clean room with a decent bed and no noise from the parking lot. Great price and only 10 minutes from the French Quarter. The front desk was friendly and had lots of info on local attractions. I will use them again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r430751531-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>430751531</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Vèry Nice</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for our honeymoon. The staff was very friendly and helpful. The room was clean and I was able to ckeck the room before paying. The only thing was that the bed sunk in the middle to much for my liking other than it was a great room and a great price. Thank you very much. We enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for our honeymoon. The staff was very friendly and helpful. The room was clean and I was able to ckeck the room before paying. The only thing was that the bed sunk in the middle to much for my liking other than it was a great room and a great price. Thank you very much. We enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r429741908-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>429741908</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>New Orelans Trip To World War 2 Museum</t>
+  </si>
+  <si>
+    <t>Jefferson Inn and Suites is a very well kept secret. I will not stay any where else when in New Orleans. Hotel does offer decent continental breakfast. I was very pleased to find out they have a guest laundry which is free and it will cost fifty cents to dry clothes. They got out of there way to make your stay totally enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Jefferson Inn and Suites is a very well kept secret. I will not stay any where else when in New Orleans. Hotel does offer decent continental breakfast. I was very pleased to find out they have a guest laundry which is free and it will cost fifty cents to dry clothes. They got out of there way to make your stay totally enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r428899465-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>428899465</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Not clean, but IMMACULATE!</t>
+  </si>
+  <si>
+    <t>A hidden gem.  I was born, raised, and lived the first fifty years of my life in the New Orleans area.  In fact, I raised a family about ten blocks away from this jewel of a hotel; my children went to school directly across the street.Even then, I was only obliquely aware of its existence.  But when I came back to visiting in New Orleans, I decided to try this property.  We spent nine days there.in a commodious room, with excellent service from the management and attentive housekeeping.  They must detail the rooms monthly, for I never been to a cleaner motel (and I travel A LOT).    The hotel also offers a decent congtinental breakfast with great coffee (Community).MoreShow less</t>
+  </si>
+  <si>
+    <t>A hidden gem.  I was born, raised, and lived the first fifty years of my life in the New Orleans area.  In fact, I raised a family about ten blocks away from this jewel of a hotel; my children went to school directly across the street.Even then, I was only obliquely aware of its existence.  But when I came back to visiting in New Orleans, I decided to try this property.  We spent nine days there.in a commodious room, with excellent service from the management and attentive housekeeping.  They must detail the rooms monthly, for I never been to a cleaner motel (and I travel A LOT).    The hotel also offers a decent congtinental breakfast with great coffee (Community).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r428273770-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>428273770</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Amazing Place</t>
+  </si>
+  <si>
+    <t>Me and my friends stay here for girl weekend getaway just to visit friends and family and every stay is pleasant. Nice staff, comfortable rooms, great are just minutes away from downtown and the French quartersMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded October 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2016</t>
+  </si>
+  <si>
+    <t>Me and my friends stay here for girl weekend getaway just to visit friends and family and every stay is pleasant. Nice staff, comfortable rooms, great are just minutes away from downtown and the French quartersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r424783920-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>424783920</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Stellar</t>
+  </si>
+  <si>
+    <t>Another wonderful stay at Jefferson Inn &amp; Suites. Annie and Jack are awesome accommodating my needs. I will definitely stay here again and again. This trip was strictly for pleasure. The room was comfortable and definitely clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>JeffersonInnSuites, Owner at Jefferson Inn &amp; Suites, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Another wonderful stay at Jefferson Inn &amp; Suites. Annie and Jack are awesome accommodating my needs. I will definitely stay here again and again. This trip was strictly for pleasure. The room was comfortable and definitely clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r421432574-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>421432574</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>A True Diamond</t>
+  </si>
+  <si>
+    <t>A True American owned and operated Mom &amp;Pop hotel. I travel alot and finding this gem was a true blessing. Entire staff is awesome,hospitality is impectiable, clean,comfortable,safe,quiet. I rate the standards here with the Hyatt,Hampton without the hype. THE ABSOLUTE BEST IN NEW ORLEANS. The only place I will be staying from now on. A True Southern Hospitality Hotel. Updated rooms, very comfortable beds.A True Home Away From Home. I don't feel I can say enough nice thing. So when in Norleans treat  yourself to a peaceful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2016</t>
+  </si>
+  <si>
+    <t>A True American owned and operated Mom &amp;Pop hotel. I travel alot and finding this gem was a true blessing. Entire staff is awesome,hospitality is impectiable, clean,comfortable,safe,quiet. I rate the standards here with the Hyatt,Hampton without the hype. THE ABSOLUTE BEST IN NEW ORLEANS. The only place I will be staying from now on. A True Southern Hospitality Hotel. Updated rooms, very comfortable beds.A True Home Away From Home. I don't feel I can say enough nice thing. So when in Norleans treat  yourself to a peaceful stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r376237527-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>376237527</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Excellent place for quiet, comfort</t>
+  </si>
+  <si>
+    <t>If you want a quiet, comfortable place to stay, with easy access to town and airport, but away from the noisiness of each, this is your best bet. The hosts are extraordinarily kind and helpful. When I came back a week after my last stay, i really felt like I was coming to a friend's home. There is no pool or jacuzzi. Breakfast is hardboiled eggs, waffles, toast, cereal, and bananas. But you could pay three times as much in town and not get half such a good sleep. The rooms are clean and well-constructed, the air conditioning &amp; flatscreen tv work fine, the bath/shower is well built, the frig is cold, and the clientele is quiet. Having tried many while my son was in the hospital, this is far and away the best budget hotel for those who want to get a good rest and feel like a welcome guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>If you want a quiet, comfortable place to stay, with easy access to town and airport, but away from the noisiness of each, this is your best bet. The hosts are extraordinarily kind and helpful. When I came back a week after my last stay, i really felt like I was coming to a friend's home. There is no pool or jacuzzi. Breakfast is hardboiled eggs, waffles, toast, cereal, and bananas. But you could pay three times as much in town and not get half such a good sleep. The rooms are clean and well-constructed, the air conditioning &amp; flatscreen tv work fine, the bath/shower is well built, the frig is cold, and the clientele is quiet. Having tried many while my son was in the hospital, this is far and away the best budget hotel for those who want to get a good rest and feel like a welcome guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r365000371-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>365000371</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Awesome Service and excellent hospitality</t>
+  </si>
+  <si>
+    <t>Excellent Hospitality, excellent and quick Service, Excellent Staff, neat ans clean Rooms, Secure Area in Such less price..what else we can expect for such less price.We are very much satisfied staying in the MotelMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Excellent Hospitality, excellent and quick Service, Excellent Staff, neat ans clean Rooms, Secure Area in Such less price..what else we can expect for such less price.We are very much satisfied staying in the MotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r361730551-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>361730551</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>A wonderful place to stay!</t>
+  </si>
+  <si>
+    <t>I emailed and asked if I could get in early and she said she would do the best she could.  We arrived at 11am and everything was ready.  The room was great and very safe.  We were looking for somewhere safe and close for dinner and a local bar about three blocks away was recommended.  We went and had some of the best Po Boys in New Orleans!  We plan on using Jefferson Inn again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>I emailed and asked if I could get in early and she said she would do the best she could.  We arrived at 11am and everything was ready.  The room was great and very safe.  We were looking for somewhere safe and close for dinner and a local bar about three blocks away was recommended.  We went and had some of the best Po Boys in New Orleans!  We plan on using Jefferson Inn again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r360533276-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>360533276</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Pluses and Minuses</t>
+  </si>
+  <si>
+    <t>OK, I'm gonna give it all to ya.
+We got in town early.  I called and asked what time I could check in early.  I was told to come then, my room was ready.  Now check in time is 1pm.  She let us check in SUPER early.  No other hotel would have done that so early.  I wasn't surprised due to the other reviews I read which is why I chose this hotel even though it was a ways away from the tourist attractions.  I wanted a "nice", clean and quiet place to stay for a decent price.  We checked in, no problem.  It was raining so we got soaking wet getting to the room - no biggie, early check in.  That day was good.  As was previously reviewed, the rooms have been upgraded.  Oddly enough, no vents in the bathroom.  But, remember the early check in, right?  We heard something on the other side of our bathroom - somebody cleaning I guessed.  But the noise didn't last too long.  There was random outside noise, didn't last too long and ya really can't blame the hotel for that.  Day 2, we ate at the continental breakfast - nothing to write home about, but decent.  We went out and came back late.  Hmmmm...I wasn't nit picking but it is what it is.  The trash was emptied, the bed was NOT made, the floor wasn't vacuumed, and there was at least one...OK, I'm gonna give it all to ya.We got in town early.  I called and asked what time I could check in early.  I was told to come then, my room was ready.  Now check in time is 1pm.  She let us check in SUPER early.  No other hotel would have done that so early.  I wasn't surprised due to the other reviews I read which is why I chose this hotel even though it was a ways away from the tourist attractions.  I wanted a "nice", clean and quiet place to stay for a decent price.  We checked in, no problem.  It was raining so we got soaking wet getting to the room - no biggie, early check in.  That day was good.  As was previously reviewed, the rooms have been upgraded.  Oddly enough, no vents in the bathroom.  But, remember the early check in, right?  We heard something on the other side of our bathroom - somebody cleaning I guessed.  But the noise didn't last too long.  There was random outside noise, didn't last too long and ya really can't blame the hotel for that.  Day 2, we ate at the continental breakfast - nothing to write home about, but decent.  We went out and came back late.  Hmmmm...I wasn't nit picking but it is what it is.  The trash was emptied, the bed was NOT made, the floor wasn't vacuumed, and there was at least one towel that was picked up off the floor and placed back on the rack (saw the same stain I put on it, still there).  My guess was in the middle of "cleaning" the room, the housekeeper was called away and forgot to come back to finish up.  I donno.  We didn't make a fuss or call.  We were just confused - never had housekeeping NOT make the bed or vac.  I'm sure had I called, someone would have come right up, but I didn't want to go through all of that; I was hot and super tired.  When using the vanity, turn the water on for at least 1 full minute for it to get hot.  But once its hot, its HOT.  Also some have said its in a warehouse area.  It's not.  Its a less traveled area than the touristy areas of New Orleans.  I didn't feel unsafe or afraid.  It was a quiet neighborhood with residences off the main road.  The E3 bus runs right to the trolley cars and they go to the French Quarter and high shopping areas. Bottom line, the room was clean upon arrival, nice upgrades, roomy, 2 TV's, decent bed for sleeping, decent price, quick free bite to eat for breakfast, on the bus line, block away from Winn Dixie to use the fridge, in room coffee and microwave andddd early check in (if available).  So the pluses and minuses brought it down to an average stay for me.  Unfortunately, my next trip will probably be closer to town - more noise, more expensive and no early check in but it'll probably boil down to the same average rating.  I donno.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded April 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2016</t>
+  </si>
+  <si>
+    <t>OK, I'm gonna give it all to ya.
+We got in town early.  I called and asked what time I could check in early.  I was told to come then, my room was ready.  Now check in time is 1pm.  She let us check in SUPER early.  No other hotel would have done that so early.  I wasn't surprised due to the other reviews I read which is why I chose this hotel even though it was a ways away from the tourist attractions.  I wanted a "nice", clean and quiet place to stay for a decent price.  We checked in, no problem.  It was raining so we got soaking wet getting to the room - no biggie, early check in.  That day was good.  As was previously reviewed, the rooms have been upgraded.  Oddly enough, no vents in the bathroom.  But, remember the early check in, right?  We heard something on the other side of our bathroom - somebody cleaning I guessed.  But the noise didn't last too long.  There was random outside noise, didn't last too long and ya really can't blame the hotel for that.  Day 2, we ate at the continental breakfast - nothing to write home about, but decent.  We went out and came back late.  Hmmmm...I wasn't nit picking but it is what it is.  The trash was emptied, the bed was NOT made, the floor wasn't vacuumed, and there was at least one...OK, I'm gonna give it all to ya.We got in town early.  I called and asked what time I could check in early.  I was told to come then, my room was ready.  Now check in time is 1pm.  She let us check in SUPER early.  No other hotel would have done that so early.  I wasn't surprised due to the other reviews I read which is why I chose this hotel even though it was a ways away from the tourist attractions.  I wanted a "nice", clean and quiet place to stay for a decent price.  We checked in, no problem.  It was raining so we got soaking wet getting to the room - no biggie, early check in.  That day was good.  As was previously reviewed, the rooms have been upgraded.  Oddly enough, no vents in the bathroom.  But, remember the early check in, right?  We heard something on the other side of our bathroom - somebody cleaning I guessed.  But the noise didn't last too long.  There was random outside noise, didn't last too long and ya really can't blame the hotel for that.  Day 2, we ate at the continental breakfast - nothing to write home about, but decent.  We went out and came back late.  Hmmmm...I wasn't nit picking but it is what it is.  The trash was emptied, the bed was NOT made, the floor wasn't vacuumed, and there was at least one towel that was picked up off the floor and placed back on the rack (saw the same stain I put on it, still there).  My guess was in the middle of "cleaning" the room, the housekeeper was called away and forgot to come back to finish up.  I donno.  We didn't make a fuss or call.  We were just confused - never had housekeeping NOT make the bed or vac.  I'm sure had I called, someone would have come right up, but I didn't want to go through all of that; I was hot and super tired.  When using the vanity, turn the water on for at least 1 full minute for it to get hot.  But once its hot, its HOT.  Also some have said its in a warehouse area.  It's not.  Its a less traveled area than the touristy areas of New Orleans.  I didn't feel unsafe or afraid.  It was a quiet neighborhood with residences off the main road.  The E3 bus runs right to the trolley cars and they go to the French Quarter and high shopping areas. Bottom line, the room was clean upon arrival, nice upgrades, roomy, 2 TV's, decent bed for sleeping, decent price, quick free bite to eat for breakfast, on the bus line, block away from Winn Dixie to use the fridge, in room coffee and microwave andddd early check in (if available).  So the pluses and minuses brought it down to an average stay for me.  Unfortunately, my next trip will probably be closer to town - more noise, more expensive and no early check in but it'll probably boil down to the same average rating.  I donno.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r360218711-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>360218711</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Truly a hidden jewel</t>
+  </si>
+  <si>
+    <t>Found these guys through Trip Advisor. Upon entry, I gave the room a visual check. The room was completely updated. Bed bug check next. Absolutely none found. The room was quiet and comfortable and I slept soundly. Also, the last minute availability was on point.Other than the location, this motel is stellar. I frequently travel to New Orleans. This my new spot.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Found these guys through Trip Advisor. Upon entry, I gave the room a visual check. The room was completely updated. Bed bug check next. Absolutely none found. The room was quiet and comfortable and I slept soundly. Also, the last minute availability was on point.Other than the location, this motel is stellar. I frequently travel to New Orleans. This my new spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r356910307-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>356910307</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Wonderful!!</t>
+  </si>
+  <si>
+    <t>Very clean, safe, and reasonably priced! We had a wonderful stay. This place is good if you have a car. You can take the bus and trolley to the French quarter but it takes a few hours. The staff was super helpful and friendly. I would recommend to everyone!! A hidden jem. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Very clean, safe, and reasonably priced! We had a wonderful stay. This place is good if you have a car. You can take the bus and trolley to the French quarter but it takes a few hours. The staff was super helpful and friendly. I would recommend to everyone!! A hidden jem. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r356033555-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>356033555</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>We were looking for a budget accommodation on a very busy weekend in New Orleans.  Found this hotel through booking.com.  We couldn't have been happier with a location 15 minutes outside the tourist areas.  Easy to find, and clean. My only complaint would be the pillows were almost as flat as the sheets, but doubling them up worked just fine.  We would definitely stay here again, if we come back through the area.  We slept through breakfast each morning, so I can't comment on that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>We were looking for a budget accommodation on a very busy weekend in New Orleans.  Found this hotel through booking.com.  We couldn't have been happier with a location 15 minutes outside the tourist areas.  Easy to find, and clean. My only complaint would be the pillows were almost as flat as the sheets, but doubling them up worked just fine.  We would definitely stay here again, if we come back through the area.  We slept through breakfast each morning, so I can't comment on that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r351672510-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>351672510</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really Good Experience </t>
+  </si>
+  <si>
+    <t>Ok, so we wanted to visit New Orleans but didn't want to spend a whole lot on a room. I found this place on another website and the price was right. The location is only about 15 minutes from French Quarter so it seemed ideal. Customer Service was outstanding! I couldn't be more happy with the staff going above and beyond for my wife and I. The rooms were very clean and the bed was comfy. All of this was enough to make me want to stay with them again. A few negatives though..The exterior looks like an old '70's apartment building. We were nervous about the area but it turned out to be fine. The bathroom is small. No counter space at all, so you women that bring tons of stuff need to bring a table. The walls are thin and the showers are loud when your neighbor takes one so be prepared. The pillows aren't very comfy so you probably want to bring your own. Those are all small things to me. I would recommend this place if you are coming to New Orleans and won't spend a ton of time in your room and aren't a sensitive sleeper. Great visit! Thank you Jefferson Inn &amp; Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Ok, so we wanted to visit New Orleans but didn't want to spend a whole lot on a room. I found this place on another website and the price was right. The location is only about 15 minutes from French Quarter so it seemed ideal. Customer Service was outstanding! I couldn't be more happy with the staff going above and beyond for my wife and I. The rooms were very clean and the bed was comfy. All of this was enough to make me want to stay with them again. A few negatives though..The exterior looks like an old '70's apartment building. We were nervous about the area but it turned out to be fine. The bathroom is small. No counter space at all, so you women that bring tons of stuff need to bring a table. The walls are thin and the showers are loud when your neighbor takes one so be prepared. The pillows aren't very comfy so you probably want to bring your own. Those are all small things to me. I would recommend this place if you are coming to New Orleans and won't spend a ton of time in your room and aren't a sensitive sleeper. Great visit! Thank you Jefferson Inn &amp; Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r337996537-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>337996537</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>It is what it promises</t>
+  </si>
+  <si>
+    <t>If you want marble in the lobby and a doorman bowing as you enter, look elsewhere. From the outside this hotel looks like a warehouse on a busy street.  Its lobby is utilitarian.  But if you want a comfortable place to sleep and amazing customer service, I highly recommend this to you.  The rooms are quiet and comfortable.  You can see how hard the owners worked to upgrade our room from its previous incarnation.  The secret sauce is Hue, who always seems to be at the reception desk.  She is friendly and extremely knowledgeable about what can be done in New Orleans and the surrounding environs.  My family and I prefer off-the-beaten-track experiences--something other than the French Quarter--and Hue was a goldmine of wonderful insights.  Thanks to her our vacation was amazing; filled with rich experiences we otherwise would have missed. No, this isn't a fancy hotel in a fancy neighborhood.  Instead, it is safe, quiet, and much loved by its owners.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2016</t>
+  </si>
+  <si>
+    <t>If you want marble in the lobby and a doorman bowing as you enter, look elsewhere. From the outside this hotel looks like a warehouse on a busy street.  Its lobby is utilitarian.  But if you want a comfortable place to sleep and amazing customer service, I highly recommend this to you.  The rooms are quiet and comfortable.  You can see how hard the owners worked to upgrade our room from its previous incarnation.  The secret sauce is Hue, who always seems to be at the reception desk.  She is friendly and extremely knowledgeable about what can be done in New Orleans and the surrounding environs.  My family and I prefer off-the-beaten-track experiences--something other than the French Quarter--and Hue was a goldmine of wonderful insights.  Thanks to her our vacation was amazing; filled with rich experiences we otherwise would have missed. No, this isn't a fancy hotel in a fancy neighborhood.  Instead, it is safe, quiet, and much loved by its owners.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r320796355-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>320796355</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Trust the Great Reviews</t>
+  </si>
+  <si>
+    <t>Convenient location to Tulane University, less than 10 minutes. The room was as the reviews commented on. The bed was comfortable, the towels were very soft. Upscale sink in the bathroom and the room overall was very clean. The people there were VERY helpful, they spent almost 10 minutes giving me advise on parking around Tulane and also around the WWII museum(which I also recommend). I would stay there again and I had no problem with the area around the motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded November 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2015</t>
+  </si>
+  <si>
+    <t>Convenient location to Tulane University, less than 10 minutes. The room was as the reviews commented on. The bed was comfortable, the towels were very soft. Upscale sink in the bathroom and the room overall was very clean. The people there were VERY helpful, they spent almost 10 minutes giving me advise on parking around Tulane and also around the WWII museum(which I also recommend). I would stay there again and I had no problem with the area around the motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r318438110-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>318438110</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Don't judge a book by its cover</t>
+  </si>
+  <si>
+    <t>We stayed here 4 nights in the king suite. It was absolutely amazing. Everyone was friendly.  The room was clean and comfortable. It's far enough away from new orleans to enjoy the quiet but close enough to go see everything.  We will gladly stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here 4 nights in the king suite. It was absolutely amazing. Everyone was friendly.  The room was clean and comfortable. It's far enough away from new orleans to enjoy the quiet but close enough to go see everything.  We will gladly stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r296919187-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>296919187</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Really Clean :)</t>
+  </si>
+  <si>
+    <t>This place was great!!! Very clean, remodeled rooms. Breakfast was good. Decided to give it a try after reading all the great reviews.  I WILL stay again :) Attended a convention at the Smoothie King Center in July 2015.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2016</t>
+  </si>
+  <si>
+    <t>This place was great!!! Very clean, remodeled rooms. Breakfast was good. Decided to give it a try after reading all the great reviews.  I WILL stay again :) Attended a convention at the Smoothie King Center in July 2015.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r296631346-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>296631346</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>clean and friendly</t>
+  </si>
+  <si>
+    <t>like they say. don't judge by old part of the city.. Very clean rooms, good breakfast, and very friendly, smiling employees. would go back and recommend it . very quiet at night. No sirens or traffic and felt safe!!MoreShow less</t>
+  </si>
+  <si>
+    <t>like they say. don't judge by old part of the city.. Very clean rooms, good breakfast, and very friendly, smiling employees. would go back and recommend it . very quiet at night. No sirens or traffic and felt safe!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r278320829-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>278320829</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Don't judge by cover</t>
+  </si>
+  <si>
+    <t>A great value.  From the outside, a classic 60's motel, but tucked behind a building so you can't quite see it from Jefferson highway.  On the inside, updated rooms and very comfy beds.  It's a great location if you have a car.  Completely quiet, but a 10-minute drive or so on River Road to the Oak Street corridor (great restaurants) and the Tulane area.  Hard to beat the price; it delivers value. Only quibble; a dark out curtain or shade would be nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Hui3401, Guest Relations Manager at Jefferson Inn &amp; Suites, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>A great value.  From the outside, a classic 60's motel, but tucked behind a building so you can't quite see it from Jefferson highway.  On the inside, updated rooms and very comfy beds.  It's a great location if you have a car.  Completely quiet, but a 10-minute drive or so on River Road to the Oak Street corridor (great restaurants) and the Tulane area.  Hard to beat the price; it delivers value. Only quibble; a dark out curtain or shade would be nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r276566544-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>276566544</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Comfy, Quiet and Clean</t>
+  </si>
+  <si>
+    <t>Very good value. Friendly owner greeted me on arrival. She answered any questions and told me about a great place to get a drink and some good food. My room was ready. It was very clean and had every thing I needed and more. I didn't opt for the micro and fridge because hey, I was in New Orleans! But there was a more than adequate continental breakfast. Enough to get you going. It was very quiet and I never saw a bug. Only thing is you need a car because it's a 15 min. Ride to the French Quarter. If you need to call a cab use United. Better to go with a pro than some guy with a car. I called Uber for a ride to the room at 5 on Sat. afternoon ( for some reason their app won't work in Jefferson) and their estimated fare was 35-50 dollars. About 8 miles. United was 21. Great place but have car.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very good value. Friendly owner greeted me on arrival. She answered any questions and told me about a great place to get a drink and some good food. My room was ready. It was very clean and had every thing I needed and more. I didn't opt for the micro and fridge because hey, I was in New Orleans! But there was a more than adequate continental breakfast. Enough to get you going. It was very quiet and I never saw a bug. Only thing is you need a car because it's a 15 min. Ride to the French Quarter. If you need to call a cab use United. Better to go with a pro than some guy with a car. I called Uber for a ride to the room at 5 on Sat. afternoon ( for some reason their app won't work in Jefferson) and their estimated fare was 35-50 dollars. About 8 miles. United was 21. Great place but have car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r273760549-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>273760549</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Convenient location for NOLA w/o the added costs.</t>
+  </si>
+  <si>
+    <t>We came to town with family over college graduation weekend. This hotel is a basic hotel, reasonably priced below the going rate for NOLA.  We stayed in a clean room with 2 King sized beds, frig and microwave. The AC worked well, the beds were comfortable. The staff were knowledgeable about the area and accommodating. I am giving a higher rating because of the cost value. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to town with family over college graduation weekend. This hotel is a basic hotel, reasonably priced below the going rate for NOLA.  We stayed in a clean room with 2 King sized beds, frig and microwave. The AC worked well, the beds were comfortable. The staff were knowledgeable about the area and accommodating. I am giving a higher rating because of the cost value. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r269811876-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>269811876</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>A hidden gem!</t>
+  </si>
+  <si>
+    <t>I booked this placed off of booking.com and was a little nervous that I was able to get a room with two king size beds (separated by a partial wall) for $80 a night. I originally booked just one night, but we were able to sneak away two days earlier. I called late and asked if we could possibly get the same room that night about 3 am, the following night, and then the Friday night we were originally booked for. The lady was able to make it happen for us! We were so happy. I called a couple of different times and no one answered the phone. I was a bit nervous but I left a message. The receptionist called me back within 15 minutes. When we checked in at 3 am we were met by a very nice lady at the desk who got our checked in in record time. From the main road the front entrance is on a one way street, not a big deal. Just a short trip around the block will get you in to the hotel.
+The hotel is in a slightly ran down residential area. I was never fearful of my belongings or safety. The entire hotel is surrounded by a fence with only one way to enter and exit. The entire complex is under video surveillance. The rooms were nice and comfortable. Two king size beds separated by a wall. Two...I booked this placed off of booking.com and was a little nervous that I was able to get a room with two king size beds (separated by a partial wall) for $80 a night. I originally booked just one night, but we were able to sneak away two days earlier. I called late and asked if we could possibly get the same room that night about 3 am, the following night, and then the Friday night we were originally booked for. The lady was able to make it happen for us! We were so happy. I called a couple of different times and no one answered the phone. I was a bit nervous but I left a message. The receptionist called me back within 15 minutes. When we checked in at 3 am we were met by a very nice lady at the desk who got our checked in in record time. From the main road the front entrance is on a one way street, not a big deal. Just a short trip around the block will get you in to the hotel.The hotel is in a slightly ran down residential area. I was never fearful of my belongings or safety. The entire hotel is surrounded by a fence with only one way to enter and exit. The entire complex is under video surveillance. The rooms were nice and comfortable. Two king size beds separated by a wall. Two large flat screens TVs, full size refrigerator, microwave, table and two chairs.  The bathrooms was decent size, no exhaust fan so it did get a little steamy in there. Towels and linens were nice. Beds were firm but nice. They offer a continental breakfast in the office area with pastries, fruit, cereal and hard boiled eggs. It was a short 10 minute (easy) drive to the French Quarter from this hotel. There were a couple of restaurants near the hotel as well. I would certainly suggest this hotel to anyone who is traveling to NOLA with a car. Save your money and stay at this hidden gem so you can spend more money on food and "drinks". :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I booked this placed off of booking.com and was a little nervous that I was able to get a room with two king size beds (separated by a partial wall) for $80 a night. I originally booked just one night, but we were able to sneak away two days earlier. I called late and asked if we could possibly get the same room that night about 3 am, the following night, and then the Friday night we were originally booked for. The lady was able to make it happen for us! We were so happy. I called a couple of different times and no one answered the phone. I was a bit nervous but I left a message. The receptionist called me back within 15 minutes. When we checked in at 3 am we were met by a very nice lady at the desk who got our checked in in record time. From the main road the front entrance is on a one way street, not a big deal. Just a short trip around the block will get you in to the hotel.
+The hotel is in a slightly ran down residential area. I was never fearful of my belongings or safety. The entire hotel is surrounded by a fence with only one way to enter and exit. The entire complex is under video surveillance. The rooms were nice and comfortable. Two king size beds separated by a wall. Two...I booked this placed off of booking.com and was a little nervous that I was able to get a room with two king size beds (separated by a partial wall) for $80 a night. I originally booked just one night, but we were able to sneak away two days earlier. I called late and asked if we could possibly get the same room that night about 3 am, the following night, and then the Friday night we were originally booked for. The lady was able to make it happen for us! We were so happy. I called a couple of different times and no one answered the phone. I was a bit nervous but I left a message. The receptionist called me back within 15 minutes. When we checked in at 3 am we were met by a very nice lady at the desk who got our checked in in record time. From the main road the front entrance is on a one way street, not a big deal. Just a short trip around the block will get you in to the hotel.The hotel is in a slightly ran down residential area. I was never fearful of my belongings or safety. The entire hotel is surrounded by a fence with only one way to enter and exit. The entire complex is under video surveillance. The rooms were nice and comfortable. Two king size beds separated by a wall. Two large flat screens TVs, full size refrigerator, microwave, table and two chairs.  The bathrooms was decent size, no exhaust fan so it did get a little steamy in there. Towels and linens were nice. Beds were firm but nice. They offer a continental breakfast in the office area with pastries, fruit, cereal and hard boiled eggs. It was a short 10 minute (easy) drive to the French Quarter from this hotel. There were a couple of restaurants near the hotel as well. I would certainly suggest this hotel to anyone who is traveling to NOLA with a car. Save your money and stay at this hidden gem so you can spend more money on food and "drinks". :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r252592323-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>252592323</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Surprise, surprise, surprise</t>
+  </si>
+  <si>
+    <t>I was looking for a last minute motel near the Garden district and St. Charles street car line, that was in a decent area and didn't cost a fortune.  I found this place with one review that was good so I was a little skeptical, based on the Google street view.   This property gets a "0" on curb appeal but when you go around the corner you see that it is a two story property with outside entries.  The "updated" room was very clean and had comfortable beds, new paint and modern touches.  It also had a full size fridge and a microwave.  They had a decent little continental breakfast w/ Community coffee. You can catch the Jefferson Express bus just a couple of blocks down the street, that takes you to the street car line.  There is a grocery store and several restaurants within walking distance and cab fare to the airport was only $25.  No pool or hot tub but if you need a no frills base for experiencing Nola, this place fits the bill.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I was looking for a last minute motel near the Garden district and St. Charles street car line, that was in a decent area and didn't cost a fortune.  I found this place with one review that was good so I was a little skeptical, based on the Google street view.   This property gets a "0" on curb appeal but when you go around the corner you see that it is a two story property with outside entries.  The "updated" room was very clean and had comfortable beds, new paint and modern touches.  It also had a full size fridge and a microwave.  They had a decent little continental breakfast w/ Community coffee. You can catch the Jefferson Express bus just a couple of blocks down the street, that takes you to the street car line.  There is a grocery store and several restaurants within walking distance and cab fare to the airport was only $25.  No pool or hot tub but if you need a no frills base for experiencing Nola, this place fits the bill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40235-d1638071-r215968124-Jefferson_Inn_Suites-Jefferson_Louisiana.html</t>
+  </si>
+  <si>
+    <t>215968124</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised!</t>
+  </si>
+  <si>
+    <t>We were in town for Forth of July weekend, and booked our room at the last minute. This was the only affordable option we could find. I was a little worried, because there was only one small photo available online, but was VERY pleased with our room upon check in. They have recently remodeled the lobby and rooms. Check-in was friendly and smooth. I requested to see the room first, and the front desk didn't skip a beat. They made me a key, and showed me where to go with a smile. We stayed in a one bedroom suite that had a full kitchen. Fridge, sink, 4 burner stove top with oven and microwave. Would be perfect for a longer stay, and was GREAT for the weekend traveling with our toddler. The bed was firmer than I would like, and the tub could have been in better shape, but overall the place was super clean, quiet and comfortable. The neighborhood next door looked ok, the main street looked a little sketchy, but the parking lot was well lit and secure. It was an easy 15 minute trip to downtown. We couldn't have been more pleased with our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for Forth of July weekend, and booked our room at the last minute. This was the only affordable option we could find. I was a little worried, because there was only one small photo available online, but was VERY pleased with our room upon check in. They have recently remodeled the lobby and rooms. Check-in was friendly and smooth. I requested to see the room first, and the front desk didn't skip a beat. They made me a key, and showed me where to go with a smile. We stayed in a one bedroom suite that had a full kitchen. Fridge, sink, 4 burner stove top with oven and microwave. Would be perfect for a longer stay, and was GREAT for the weekend traveling with our toddler. The bed was firmer than I would like, and the tub could have been in better shape, but overall the place was super clean, quiet and comfortable. The neighborhood next door looked ok, the main street looked a little sketchy, but the parking lot was well lit and secure. It was an easy 15 minute trip to downtown. We couldn't have been more pleased with our stay!More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -555,6 +1744,2988 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>205</v>
+      </c>
+      <c r="X22" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>235</v>
+      </c>
+      <c r="X26" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>235</v>
+      </c>
+      <c r="X27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>250</v>
+      </c>
+      <c r="X28" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" t="s">
+        <v>256</v>
+      </c>
+      <c r="L29" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>186</v>
+      </c>
+      <c r="O29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>258</v>
+      </c>
+      <c r="X29" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O30" t="s">
+        <v>267</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>268</v>
+      </c>
+      <c r="X30" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>276</v>
+      </c>
+      <c r="X31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" t="s">
+        <v>281</v>
+      </c>
+      <c r="K32" t="s">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s">
+        <v>283</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s">
+        <v>187</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>294</v>
+      </c>
+      <c r="X33" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>302</v>
+      </c>
+      <c r="X34" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s">
+        <v>309</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>310</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" t="s">
+        <v>187</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>317</v>
+      </c>
+      <c r="X36" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>325</v>
+      </c>
+      <c r="X37" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38" t="s">
+        <v>330</v>
+      </c>
+      <c r="K38" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" t="s">
+        <v>332</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>333</v>
+      </c>
+      <c r="O38" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>334</v>
+      </c>
+      <c r="X38" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J39" t="s">
+        <v>339</v>
+      </c>
+      <c r="K39" t="s">
+        <v>340</v>
+      </c>
+      <c r="L39" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>342</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>343</v>
+      </c>
+      <c r="X39" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" t="s">
+        <v>310</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>352</v>
+      </c>
+      <c r="X40" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>351</v>
+      </c>
+      <c r="O41" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>360</v>
+      </c>
+      <c r="X41" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>368</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>369</v>
+      </c>
+      <c r="X42" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+      <c r="J43" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s">
+        <v>376</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>369</v>
+      </c>
+      <c r="X43" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>383</v>
+      </c>
+      <c r="O44" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>384</v>
+      </c>
+      <c r="X44" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>388</v>
+      </c>
+      <c r="J45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>310</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>384</v>
+      </c>
+      <c r="X45" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>394</v>
+      </c>
+      <c r="J46" t="s">
+        <v>395</v>
+      </c>
+      <c r="K46" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s">
+        <v>397</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>384</v>
+      </c>
+      <c r="X46" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>400</v>
+      </c>
+      <c r="J47" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>404</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>384</v>
+      </c>
+      <c r="X47" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>411</v>
+      </c>
+      <c r="O48" t="s">
+        <v>310</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>384</v>
+      </c>
+      <c r="X48" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>51434</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>416</v>
+      </c>
+      <c r="L49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>418</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -577,31 +4748,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>419</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>420</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>421</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>422</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>423</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>424</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>426</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
@@ -609,29 +4780,29 @@
         <v>51434</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>429</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>430</v>
       </c>
       <c r="E2" t="n">
         <v>70121</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>431</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>428</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="I2" t="s"/>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
